--- a/iselUssSyncV2/OutputWSL/20220517_1357_D60L474W90Q8.1U0.17H62G2_S_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220517_1357_D60L474W90Q8.1U0.17H62G2_S_DATA.xlsx
@@ -127,7 +127,7 @@
     <t>caseStr</t>
   </si>
   <si>
-    <t>2A</t>
+    <t>kA</t>
   </si>
   <si>
     <t>Ftotal</t>
@@ -351,16 +351,16 @@
         <v>0.06262265649834943</v>
       </c>
       <c r="G2" s="0">
-        <v>0.067575219123505934</v>
+        <v>0.066642562132422672</v>
       </c>
       <c r="H2" s="0">
-        <v>0.0050774206349206421</v>
+        <v>0.0031774206349206367</v>
       </c>
       <c r="I2" s="0">
         <v>0.051448622386599627</v>
       </c>
       <c r="J2" s="0">
-        <v>0.050133928571428586</v>
+        <v>0.047480303073420611</v>
       </c>
       <c r="K2" s="0">
         <v>0.002</v>
@@ -408,7 +408,7 @@
         <v>0.20889410952927193</v>
       </c>
       <c r="Z2" s="0">
-        <v>0.18200360890448439</v>
+        <v>0.19747284485623989</v>
       </c>
       <c r="AA2" s="0">
         <v>0.21621262816070599</v>
@@ -428,21 +428,17 @@
       <c r="AF2" s="0">
         <v>2.1091752876420298</v>
       </c>
-      <c r="AG2" s="0">
-        <v>2.8586727314206613</v>
-      </c>
+      <c r="AG2" s="0"/>
       <c r="AH2" s="0">
         <v>3.5324928237509567</v>
       </c>
       <c r="AI2" s="0">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="AJ2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="AK2" s="0">
-        <v>4.967848019062691</v>
-      </c>
+      <c r="AK2" s="0"/>
     </row>
   </sheetData>
 </worksheet>
